--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H2">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I2">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J2">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N2">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P2">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q2">
-        <v>0.1970849140291111</v>
+        <v>0.8035641779629998</v>
       </c>
       <c r="R2">
-        <v>1.773764226262</v>
+        <v>7.232077601666999</v>
       </c>
       <c r="S2">
-        <v>0.0007085663482020096</v>
+        <v>0.002529274463938871</v>
       </c>
       <c r="T2">
-        <v>0.0007085663482020095</v>
+        <v>0.002529274463938871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H3">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I3">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J3">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P3">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q3">
-        <v>2.274036876710777</v>
+        <v>3.309784136327</v>
       </c>
       <c r="R3">
-        <v>20.466331890397</v>
+        <v>29.788057226943</v>
       </c>
       <c r="S3">
-        <v>0.008175694285609582</v>
+        <v>0.01041777710696719</v>
       </c>
       <c r="T3">
-        <v>0.008175694285609582</v>
+        <v>0.01041777710696719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H4">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I4">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J4">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N4">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P4">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q4">
-        <v>2.678569572387111</v>
+        <v>4.285466690612</v>
       </c>
       <c r="R4">
-        <v>24.107126151484</v>
+        <v>38.569200215508</v>
       </c>
       <c r="S4">
-        <v>0.009630083914139725</v>
+        <v>0.01348880620102087</v>
       </c>
       <c r="T4">
-        <v>0.009630083914139725</v>
+        <v>0.01348880620102087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H5">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I5">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J5">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N5">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O5">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P5">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q5">
-        <v>0.2627208319717778</v>
+        <v>0.202946464366</v>
       </c>
       <c r="R5">
-        <v>2.364487487746</v>
+        <v>1.826518179294</v>
       </c>
       <c r="S5">
-        <v>0.0009445428201538534</v>
+        <v>0.0006387881938301623</v>
       </c>
       <c r="T5">
-        <v>0.0009445428201538533</v>
+        <v>0.0006387881938301623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N6">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P6">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q6">
-        <v>7.398143468215111</v>
+        <v>20.72467687290044</v>
       </c>
       <c r="R6">
-        <v>66.58329121393599</v>
+        <v>186.522091856104</v>
       </c>
       <c r="S6">
-        <v>0.02659805559736264</v>
+        <v>0.06523237026430162</v>
       </c>
       <c r="T6">
-        <v>0.02659805559736263</v>
+        <v>0.06523237026430163</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>31.705039</v>
       </c>
       <c r="O7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P7">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q7">
         <v>85.36244972780177</v>
@@ -883,10 +883,10 @@
         <v>768.2620475502159</v>
       </c>
       <c r="S7">
-        <v>0.3068979661643306</v>
+        <v>0.2686842820981699</v>
       </c>
       <c r="T7">
-        <v>0.3068979661643306</v>
+        <v>0.2686842820981699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N8">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P8">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q8">
-        <v>100.5477364096391</v>
+        <v>110.5262216113885</v>
       </c>
       <c r="R8">
-        <v>904.9296276867519</v>
+        <v>994.7359945024961</v>
       </c>
       <c r="S8">
-        <v>0.3614926223994637</v>
+        <v>0.3478890144480846</v>
       </c>
       <c r="T8">
-        <v>0.3614926223994637</v>
+        <v>0.3478890144480847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N9">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O9">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P9">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q9">
-        <v>9.861974553409778</v>
+        <v>5.234180432414223</v>
       </c>
       <c r="R9">
-        <v>88.75777098068799</v>
+        <v>47.107623891728</v>
       </c>
       <c r="S9">
-        <v>0.03545610444003109</v>
+        <v>0.01647494907116602</v>
       </c>
       <c r="T9">
-        <v>0.03545610444003108</v>
+        <v>0.01647494907116602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H10">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N10">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P10">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q10">
-        <v>2.057514563051111</v>
+        <v>7.435123729818555</v>
       </c>
       <c r="R10">
-        <v>18.51763106746</v>
+        <v>66.916113568367</v>
       </c>
       <c r="S10">
-        <v>0.007397245940895494</v>
+        <v>0.02340257206801707</v>
       </c>
       <c r="T10">
-        <v>0.007397245940895492</v>
+        <v>0.02340257206801707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H11">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.705039</v>
       </c>
       <c r="O11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P11">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q11">
-        <v>23.74034569716778</v>
+        <v>30.62437979124922</v>
       </c>
       <c r="R11">
-        <v>213.66311127451</v>
+        <v>275.619418121243</v>
       </c>
       <c r="S11">
-        <v>0.0853520937336217</v>
+        <v>0.09639237773929089</v>
       </c>
       <c r="T11">
-        <v>0.0853520937336217</v>
+        <v>0.09639237773929089</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H12">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N12">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P12">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q12">
-        <v>27.96356043019111</v>
+        <v>39.65206010736756</v>
       </c>
       <c r="R12">
-        <v>251.67204387172</v>
+        <v>356.868540966308</v>
       </c>
       <c r="S12">
-        <v>0.1005355381681828</v>
+        <v>0.1248076330709106</v>
       </c>
       <c r="T12">
-        <v>0.1005355381681828</v>
+        <v>0.1248076330709106</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H13">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N13">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O13">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P13">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q13">
-        <v>2.742736248797778</v>
+        <v>1.877799078743778</v>
       </c>
       <c r="R13">
-        <v>24.68462623918</v>
+        <v>16.900191708694</v>
       </c>
       <c r="S13">
-        <v>0.009860778119246925</v>
+        <v>0.00591050396287484</v>
       </c>
       <c r="T13">
-        <v>0.009860778119246924</v>
+        <v>0.00591050396287484</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H14">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9159313333333333</v>
+        <v>2.565830333333333</v>
       </c>
       <c r="N14">
-        <v>2.747794</v>
+        <v>7.697490999999999</v>
       </c>
       <c r="O14">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="P14">
-        <v>0.03641350786393945</v>
+        <v>0.0934185609347503</v>
       </c>
       <c r="Q14">
-        <v>0.4755295659146666</v>
+        <v>0.7162173264788887</v>
       </c>
       <c r="R14">
-        <v>4.279766093231999</v>
+        <v>6.445955938309999</v>
       </c>
       <c r="S14">
-        <v>0.001709639977479315</v>
+        <v>0.002254344138492736</v>
       </c>
       <c r="T14">
-        <v>0.001709639977479314</v>
+        <v>0.002254344138492736</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H15">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.705039</v>
       </c>
       <c r="O15">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="P15">
-        <v>0.4201521973455823</v>
+        <v>0.3847798091300315</v>
       </c>
       <c r="Q15">
-        <v>5.486831775954666</v>
+        <v>2.950012967665555</v>
       </c>
       <c r="R15">
-        <v>49.38148598359199</v>
+        <v>26.55011670899</v>
       </c>
       <c r="S15">
-        <v>0.01972644316202044</v>
+        <v>0.009285372185603541</v>
       </c>
       <c r="T15">
-        <v>0.01972644316202044</v>
+        <v>0.009285372185603543</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H16">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.44836933333333</v>
+        <v>13.68376133333333</v>
       </c>
       <c r="N16">
-        <v>37.345108</v>
+        <v>41.051284</v>
       </c>
       <c r="O16">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="P16">
-        <v>0.4948938617078529</v>
+        <v>0.4982080363333638</v>
       </c>
       <c r="Q16">
-        <v>6.462894597002665</v>
+        <v>3.819639526048889</v>
       </c>
       <c r="R16">
-        <v>58.16605137302399</v>
+        <v>34.37675573444</v>
       </c>
       <c r="S16">
-        <v>0.02323561722606664</v>
+        <v>0.01202258261334773</v>
       </c>
       <c r="T16">
-        <v>0.02323561722606664</v>
+        <v>0.01202258261334773</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H17">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>1.220967333333333</v>
+        <v>0.6480206666666667</v>
       </c>
       <c r="N17">
-        <v>3.662902</v>
+        <v>1.944062</v>
       </c>
       <c r="O17">
-        <v>0.04854043308262539</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="P17">
-        <v>0.04854043308262538</v>
+        <v>0.0235935936018545</v>
       </c>
       <c r="Q17">
-        <v>0.6338969362506666</v>
+        <v>0.1808863288244444</v>
       </c>
       <c r="R17">
-        <v>5.705072426255999</v>
+        <v>1.62797695942</v>
       </c>
       <c r="S17">
-        <v>0.00227900770319352</v>
+        <v>0.0005693523739834791</v>
       </c>
       <c r="T17">
-        <v>0.00227900770319352</v>
+        <v>0.0005693523739834794</v>
       </c>
     </row>
   </sheetData>
